--- a/role_Information_Architect/Product Backlog 04-04-2018.xlsx
+++ b/role_Information_Architect/Product Backlog 04-04-2018.xlsx
@@ -2,14 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,79 +23,388 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="125">
   <si>
     <t>Product Backlog</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
-    <t>Estimation</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>As a University admin, I want to create new user account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an authorized user, I want to login </t>
-  </si>
-  <si>
-    <t>As an authorized user, I want to change password.</t>
-  </si>
-  <si>
-    <t>As an authorized user, I want to logout of the system once I'm logged in.</t>
-  </si>
-  <si>
-    <t>As a QA Manager, I want to set closer date and final closer date for idea submission</t>
-  </si>
-  <si>
-    <t>As a QA Manager, I want to add, delete category and assign department to the category.</t>
-  </si>
-  <si>
-    <t>As a Student/Staff, I want to Submit idea</t>
-  </si>
-  <si>
-    <t>As a Student/Staff, I want to comment and thumbs up or thumbs down on any idea</t>
-  </si>
-  <si>
-    <t>As a Student, I want to upload document with my idea</t>
-  </si>
-  <si>
-    <t>As an Author (student/Staff), I want to get notification/email whenever a comment is thrown on my idea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a QA Coordinator, I want to get email when a idea is submitted </t>
-  </si>
-  <si>
-    <t>As a QA Coordinator, I want to create new issue and send to QA Manager</t>
-  </si>
-  <si>
-    <t>As a QA Coordinator, I want to see list of all issues with status</t>
-  </si>
-  <si>
-    <t>As a QA Manager, I want to see pending issue list QA Coordinator sent to me.</t>
-  </si>
-  <si>
-    <t>As a QA Manager, I want to downlaod contributions</t>
-  </si>
-  <si>
-    <t>As a Admin, I want to investigate ideas</t>
-  </si>
-  <si>
-    <t>AS a QA Coordinator, I want to see different type of reports</t>
+    <t>Product Backlog items</t>
+  </si>
+  <si>
+    <t>Selecting theme</t>
+  </si>
+  <si>
+    <t>Estimation (in minutes)</t>
+  </si>
+  <si>
+    <t>Setting up project environment</t>
+  </si>
+  <si>
+    <t>Editing theme to match with project</t>
+  </si>
+  <si>
+    <t>Setting up initial database</t>
+  </si>
+  <si>
+    <t>Designing initial data model for user login</t>
+  </si>
+  <si>
+    <t>Responsible person</t>
+  </si>
+  <si>
+    <t>Scrum Master and UI Designer</t>
+  </si>
+  <si>
+    <t>Scrum master</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>UI designer</t>
+  </si>
+  <si>
+    <t>Database designer</t>
+  </si>
+  <si>
+    <t>System architect</t>
+  </si>
+  <si>
+    <t>Making the log in functionality</t>
+  </si>
+  <si>
+    <t>Testing Log in functionality for all users</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Integrating password reset functionality</t>
+  </si>
+  <si>
+    <t>Testing Password reset</t>
+  </si>
+  <si>
+    <t>Designing common tables</t>
+  </si>
+  <si>
+    <t>Designing common data stores</t>
+  </si>
+  <si>
+    <t>Scrum master, Database designer, System architect</t>
+  </si>
+  <si>
+    <t>System architect, Programmer</t>
+  </si>
+  <si>
+    <t>Developing set terms and conditions page in admin panel</t>
+  </si>
+  <si>
+    <t>Testing set terms and conditions page in admin panel</t>
+  </si>
+  <si>
+    <t>Developing logout functionality</t>
+  </si>
+  <si>
+    <t>Setting up cloud server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up cloud and database security </t>
+  </si>
+  <si>
+    <t>Scrum master, Database designer</t>
+  </si>
+  <si>
+    <t>Setting up application security</t>
+  </si>
+  <si>
+    <t>System architect and Programmer</t>
+  </si>
+  <si>
+    <t>Integrating database with data model</t>
+  </si>
+  <si>
+    <t>Testing logout functionality</t>
+  </si>
+  <si>
+    <t>Making add tag and view all tags in QA Manager panel</t>
+  </si>
+  <si>
+    <t>Testing add tag and view all tags in QA Manager panel</t>
+  </si>
+  <si>
+    <t>Making Timeline page  in student panel</t>
+  </si>
+  <si>
+    <t>Adding comment and anonymous comment functionality in student panel</t>
+  </si>
+  <si>
+    <t>Adding Thumb up and thumb down functionality in student panel</t>
+  </si>
+  <si>
+    <t>Adding view full post functionality in student panel</t>
+  </si>
+  <si>
+    <t>Adding video previewer in student panel</t>
+  </si>
+  <si>
+    <t>Adding other attachment section in student panel</t>
+  </si>
+  <si>
+    <t>Adding all ideas of same category section in student panel</t>
+  </si>
+  <si>
+    <t>Counting and displaying thumbs up, thumbs down, total comments, total views and total seen by in student panel</t>
+  </si>
+  <si>
+    <t>Making post new idea functionality in student panel</t>
+  </si>
+  <si>
+    <t>Testing post new idea functionality in student panel</t>
+  </si>
+  <si>
+    <t>Integrating tag to post new idea</t>
+  </si>
+  <si>
+    <t>Integration test for post new idea with tag, checking if tag can be deleted after having an idea</t>
+  </si>
+  <si>
+    <t>Testing for overdated idea submission</t>
+  </si>
+  <si>
+    <t>Fixing bug for overdated idea submission</t>
+  </si>
+  <si>
+    <t>Retesting overdated submission</t>
+  </si>
+  <si>
+    <t>Testing pagination</t>
+  </si>
+  <si>
+    <t>Fixing pagination issue</t>
+  </si>
+  <si>
+    <t>Retesting pagination</t>
+  </si>
+  <si>
+    <t>Testing video previewer in student panel</t>
+  </si>
+  <si>
+    <t>Testing comment, anonymous comment and overdated comment</t>
+  </si>
+  <si>
+    <t>Fixing issues of overdated comment</t>
+  </si>
+  <si>
+    <t>Testing other attachments section, trying to download attachment</t>
+  </si>
+  <si>
+    <t>Fixing issue for downloading other attachments</t>
+  </si>
+  <si>
+    <t>Integration test to thumb up, thumb down, total comments, total views, total seen by, read full post</t>
+  </si>
+  <si>
+    <t>Testing thumb up and thumb down functionality</t>
+  </si>
+  <si>
+    <t>Fixing thumb up and thumb down bugs</t>
+  </si>
+  <si>
+    <t>Testing view all ideas in student panel</t>
+  </si>
+  <si>
+    <t>Adding email notification functionality</t>
+  </si>
+  <si>
+    <t>Testing email notification functionality</t>
+  </si>
+  <si>
+    <t>Integrating email notification to author</t>
+  </si>
+  <si>
+    <t>Testing email notification to author</t>
+  </si>
+  <si>
+    <t>Adding view profile by overriding functionalities of timeline.</t>
+  </si>
+  <si>
+    <t>Adding QA Coordinator timeline, post an idea</t>
+  </si>
+  <si>
+    <t>Adding My Department Activity page for reports in QA CO-ordinator</t>
+  </si>
+  <si>
+    <t>Testing Reports</t>
+  </si>
+  <si>
+    <t>Fixing bug of most popular ideas, most commented ideas</t>
+  </si>
+  <si>
+    <t>Adding View All ideas &gt; My department and staff ideas by overriding All ideas from student</t>
+  </si>
+  <si>
+    <t>Testing and reporting but for viewing permission management</t>
+  </si>
+  <si>
+    <t>Fixing bug of list of ideas viewing permission management</t>
+  </si>
+  <si>
+    <t>Submit an issue</t>
+  </si>
+  <si>
+    <t>Adding aditional data models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing sequence diagram, class diagram </t>
+  </si>
+  <si>
+    <t>Designing system use case</t>
+  </si>
+  <si>
+    <t>System Architect</t>
+  </si>
+  <si>
+    <t>Designing Login page</t>
+  </si>
+  <si>
+    <t>Designing password reset pages</t>
+  </si>
+  <si>
+    <t>Designing "Set terms and conditions" page</t>
+  </si>
+  <si>
+    <t>Designing UI for add tag and view all tags pages</t>
+  </si>
+  <si>
+    <t>Designing page for posting new idea</t>
+  </si>
+  <si>
+    <t>Fixing bug for delete tag after submitting idea</t>
+  </si>
+  <si>
+    <t>Designing timeline page</t>
+  </si>
+  <si>
+    <t>Adding pagination  in student timeline</t>
+  </si>
+  <si>
+    <t>Designing view full post page</t>
+  </si>
+  <si>
+    <t>Making View all ideas in student panel by overriding the functionalities of timeline</t>
+  </si>
+  <si>
+    <t>Designing view all ideas page</t>
+  </si>
+  <si>
+    <t>Designing view profile page</t>
+  </si>
+  <si>
+    <t>Designing My department activity page, designing the report pages</t>
+  </si>
+  <si>
+    <t>Designing view all ideas &gt; My department ideas, staff ideas pages</t>
+  </si>
+  <si>
+    <t>Adding aditional database tables</t>
+  </si>
+  <si>
+    <t>Designing submit an issue page</t>
+  </si>
+  <si>
+    <t>Designing view all issues page for QA Coordinator</t>
+  </si>
+  <si>
+    <t>Developing fucntionality for view all issues page</t>
+  </si>
+  <si>
+    <t>Designing view all issues page for QA Manager</t>
+  </si>
+  <si>
+    <t>Developing fucntionality for view all issues page in QA Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing functionality for Download archave </t>
+  </si>
+  <si>
+    <t>Testing issue submission functionality</t>
+  </si>
+  <si>
+    <t>Testing view all issues page in QA Manager</t>
+  </si>
+  <si>
+    <t>Testing download archive</t>
+  </si>
+  <si>
+    <t>Setting up notification and announcements for users</t>
+  </si>
+  <si>
+    <t>Designing notificaitons and announcements tabs</t>
+  </si>
+  <si>
+    <t>Testing notifications and announcements</t>
+  </si>
+  <si>
+    <t>Designing Update profile page</t>
+  </si>
+  <si>
+    <t>Developing Update profile information functionalities</t>
+  </si>
+  <si>
+    <t>Testing update profile information</t>
+  </si>
+  <si>
+    <t>Developing functionality for last activity count</t>
+  </si>
+  <si>
+    <t>Designing manage batch and manage department page</t>
+  </si>
+  <si>
+    <t>Developing manage batch and manage department functionality</t>
+  </si>
+  <si>
+    <t>Testing manage barch and manage department functionalities</t>
+  </si>
+  <si>
+    <t>Integrating manage manage barch and manage depaerment with manage tag</t>
+  </si>
+  <si>
+    <t>Performing complete integration test, reporting issue of profile side navigation bar</t>
+  </si>
+  <si>
+    <t>Fixing bug for download archive</t>
+  </si>
+  <si>
+    <t>Fixing bug for profile sidenav</t>
+  </si>
+  <si>
+    <t>Performing complete integration test 2</t>
+  </si>
+  <si>
+    <t>Sum of Estimation (in minutes)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +420,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -117,13 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,24 +460,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,6 +502,867 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43194.488201388885" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="104">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:E105" sheet="Sheet1" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Product Backlog items" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="103"/>
+    </cacheField>
+    <cacheField name="Story" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Responsible person" numFmtId="0">
+      <sharedItems containsBlank="1" count="12">
+        <s v="Scrum Master and UI Designer"/>
+        <s v="Scrum master"/>
+        <s v="Programmer"/>
+        <s v="UI designer"/>
+        <s v="Database designer"/>
+        <s v="System Architect"/>
+        <s v="System architect and Programmer"/>
+        <s v="Scrum master, Database designer"/>
+        <s v="Tester"/>
+        <s v="Scrum master, Database designer, System architect"/>
+        <s v="System architect, Programmer"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estimation (in minutes)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="10350"/>
+    </cacheField>
+    <cacheField name="Priority" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="104">
+  <r>
+    <n v="1"/>
+    <s v="Selecting theme"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Setting up cloud server"/>
+    <x v="1"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Setting up project environment"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Editing theme to match with project"/>
+    <x v="3"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Designing system use case"/>
+    <x v="4"/>
+    <n v="300"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Setting up initial database"/>
+    <x v="4"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Designing sequence diagram, class diagram "/>
+    <x v="5"/>
+    <n v="240"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Designing initial data model for user login"/>
+    <x v="5"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Integrating database with data model"/>
+    <x v="6"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Setting up cloud and database security "/>
+    <x v="7"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Setting up application security"/>
+    <x v="6"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Designing Login page"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Making the log in functionality"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Testing Log in functionality for all users"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Designing password reset pages"/>
+    <x v="3"/>
+    <n v="90"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Integrating password reset functionality"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Testing Password reset"/>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Designing common tables"/>
+    <x v="9"/>
+    <n v="480"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Designing common data stores"/>
+    <x v="10"/>
+    <n v="240"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Designing &quot;Set terms and conditions&quot; page"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Developing set terms and conditions page in admin panel"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Testing set terms and conditions page in admin panel"/>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Developing logout functionality"/>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Testing logout functionality"/>
+    <x v="8"/>
+    <n v="15"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Designing UI for add tag and view all tags pages"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Making add tag and view all tags in QA Manager panel"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Testing add tag and view all tags in QA Manager panel"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Designing page for posting new idea"/>
+    <x v="3"/>
+    <n v="45"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Making post new idea functionality in student panel"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Testing post new idea functionality in student panel"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Integrating tag to post new idea"/>
+    <x v="2"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Integration test for post new idea with tag, checking if tag can be deleted after having an idea"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Fixing bug for delete tag after submitting idea"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Testing for overdated idea submission"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Fixing bug for overdated idea submission"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Retesting overdated submission"/>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Adding email notification functionality"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Testing email notification functionality"/>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Designing timeline page"/>
+    <x v="3"/>
+    <n v="105"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Making Timeline page  in student panel"/>
+    <x v="2"/>
+    <n v="480"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Adding pagination  in student timeline"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Testing pagination"/>
+    <x v="8"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Fixing pagination issue"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Retesting pagination"/>
+    <x v="8"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Adding comment and anonymous comment functionality in student panel"/>
+    <x v="2"/>
+    <n v="240"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Testing comment, anonymous comment and overdated comment"/>
+    <x v="8"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Integrating email notification to author"/>
+    <x v="2"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Testing email notification to author"/>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Fixing issues of overdated comment"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Adding Thumb up and thumb down functionality in student panel"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Testing thumb up and thumb down functionality"/>
+    <x v="8"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Fixing thumb up and thumb down bugs"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Designing view full post page"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Adding view full post functionality in student panel"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Adding video previewer in student panel"/>
+    <x v="2"/>
+    <n v="420"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Testing video previewer in student panel"/>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Adding other attachment section in student panel"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Testing other attachments section, trying to download attachment"/>
+    <x v="8"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Fixing issue for downloading other attachments"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Adding all ideas of same category section in student panel"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Counting and displaying thumbs up, thumbs down, total comments, total views and total seen by in student panel"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Integration test to thumb up, thumb down, total comments, total views, total seen by, read full post"/>
+    <x v="8"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Designing view all ideas page"/>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Making View all ideas in student panel by overriding the functionalities of timeline"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Testing view all ideas in student panel"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Designing view profile page"/>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Adding view profile by overriding functionalities of timeline."/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Adding QA Coordinator timeline, post an idea"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Designing My department activity page, designing the report pages"/>
+    <x v="3"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Adding My Department Activity page for reports in QA CO-ordinator"/>
+    <x v="2"/>
+    <n v="420"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="Testing Reports"/>
+    <x v="8"/>
+    <n v="240"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Fixing bug of most popular ideas, most commented ideas"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Designing view all ideas &gt; My department ideas, staff ideas pages"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Adding View All ideas &gt; My department and staff ideas by overriding All ideas from student"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Testing and reporting but for viewing permission management"/>
+    <x v="8"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Fixing bug of list of ideas viewing permission management"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="Adding aditional database tables"/>
+    <x v="4"/>
+    <n v="120"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="Adding aditional data models"/>
+    <x v="5"/>
+    <n v="60"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="Designing submit an issue page"/>
+    <x v="3"/>
+    <n v="50"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="Submit an issue"/>
+    <x v="2"/>
+    <n v="90"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="Testing issue submission functionality"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="Designing view all issues page for QA Coordinator"/>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="Developing fucntionality for view all issues page"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="Designing view all issues page for QA Manager"/>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="Testing view all issues page in QA Manager"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="Developing fucntionality for view all issues page in QA Manager"/>
+    <x v="2"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="Developing functionality for Download archave "/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="Testing download archive"/>
+    <x v="8"/>
+    <n v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="Fixing bug for download archive"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="Designing notificaitons and announcements tabs"/>
+    <x v="3"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="Setting up notification and announcements for users"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="Testing notifications and announcements"/>
+    <x v="8"/>
+    <n v="120"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="Designing Update profile page"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="Developing Update profile information functionalities"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="Testing update profile information"/>
+    <x v="8"/>
+    <n v="30"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="Developing functionality for last activity count"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="Designing manage batch and manage department page"/>
+    <x v="3"/>
+    <n v="90"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="Developing manage batch and manage department functionality"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="Testing manage barch and manage department functionalities"/>
+    <x v="8"/>
+    <n v="60"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="Integrating manage manage barch and manage depaerment with manage tag"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <s v="Performing complete integration test, reporting issue of profile side navigation bar"/>
+    <x v="8"/>
+    <n v="300"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="Fixing bug for profile sidenav"/>
+    <x v="2"/>
+    <n v="120"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="Performing complete integration test 2"/>
+    <x v="8"/>
+    <n v="180"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <s v="Total"/>
+    <x v="11"/>
+    <n v="10350"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Estimation (in minutes)" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,249 +1628,1993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L23"/>
+  <dimension ref="A3:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="10">
+        <v>10350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="10">
+        <v>20700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="103.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f ca="1">OFFSET(A3,-5,0)+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="s">
+        <v>80</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>79</v>
       </c>
       <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1">
+        <v>240</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>7</v>
+      <c r="B12" t="s">
+        <v>30</v>
       </c>
       <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>120</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>8</v>
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>120</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>180</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
+      <c r="D17" s="1">
+        <v>90</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>14</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>15</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>480</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>240</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>180</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>180</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1">
+        <v>180</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1">
+        <v>105</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>480</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
+        <v>180</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1">
+        <v>180</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>60</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1">
+        <v>240</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1">
+        <v>120</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>300</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="1">
+        <v>60</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1">
+        <v>90</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <v>60</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1">
+        <v>120</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1">
+        <v>420</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1">
+        <v>60</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>30</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1">
+        <v>90</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1">
+        <v>60</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1">
+        <v>30</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>180</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1">
+        <v>30</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1">
+        <v>30</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1">
+        <v>60</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1">
+        <v>90</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1">
+        <v>120</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="1">
+        <v>420</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="1">
+        <v>240</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="1">
+        <v>90</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1">
+        <v>60</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="1">
+        <v>90</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="1">
+        <v>120</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1">
+        <v>120</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="1">
+        <v>120</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D80" s="1">
+        <v>60</v>
+      </c>
+      <c r="E80" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>17</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1">
+        <v>50</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="1">
+        <v>90</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="D83" s="1">
+        <v>30</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1">
+        <v>30</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="1">
+        <v>60</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1">
+        <v>30</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
+      <c r="D87" s="1">
+        <v>30</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="1">
+        <v>30</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="1">
+        <v>60</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="1">
+        <v>60</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="1">
+        <v>30</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="1">
+        <v>120</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1">
+        <v>120</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1">
+        <v>60</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="1">
+        <v>120</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="1">
+        <v>30</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="1">
+        <v>60</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="1">
+        <v>90</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="1">
+        <v>120</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="1">
+        <v>60</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="1">
+        <v>60</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="1">
+        <v>300</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="1">
+        <v>120</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="1">
+        <v>180</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="9"/>
+      <c r="C110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="10"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="9"/>
+      <c r="C117" s="10"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+      <c r="C119" s="10"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
+      <c r="C120" s="10"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
+      <c r="C121" s="10"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
+      <c r="C122" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
